--- a/Area de proceso MA/TM_0.1_2015 Tablero metrica.xlsx
+++ b/Area de proceso MA/TM_0.1_2015 Tablero metrica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>TABLERO DE CONTROL DE MÉTRICAS DEL</t>
   </si>
@@ -91,13 +91,31 @@
   </si>
   <si>
     <t>REGISTROS DE RIESGOS</t>
+  </si>
+  <si>
+    <t>Indice Cambios Items de Configuracion</t>
+  </si>
+  <si>
+    <t>&lt;1.11</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>&lt;1.61</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>&gt;1.61</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -185,12 +203,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -370,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -627,15 +639,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -780,78 +783,80 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="21" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,7 +1214,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1221,95 +1226,95 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" s="28" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+    <row r="1" spans="1:14" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="5"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="38"/>
+      <c r="K4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="38"/>
+      <c r="M4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="39"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1331,8 +1336,8 @@
       <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="10">
-        <v>1</v>
+      <c r="J6" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="10">
         <v>0</v>
@@ -1340,10 +1345,10 @@
       <c r="L6" s="10">
         <v>10</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="28">
         <v>0</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -1351,11 +1356,11 @@
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="11"/>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -1366,11 +1371,11 @@
       <c r="H7" s="10">
         <v>5</v>
       </c>
-      <c r="I7" s="10">
-        <v>2</v>
-      </c>
-      <c r="J7" s="10">
-        <v>5</v>
+      <c r="I7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="K7" s="10">
         <v>11</v>
@@ -1378,18 +1383,18 @@
       <c r="L7" s="10">
         <v>35</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <v>0.06</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" s="7" t="s">
         <v>7</v>
@@ -1397,25 +1402,25 @@
       <c r="G8" s="10">
         <v>6</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="10">
-        <v>6</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>20</v>
+      <c r="I8" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>30</v>
       </c>
       <c r="K8" s="10">
         <v>36</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <v>100</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <v>0.21</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1436,19 +1441,19 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="5"/>
@@ -1457,23 +1462,23 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>0</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>10</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>3</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <f>G11</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <f>AVERAGE(C11:E11)</f>
         <v>4.333333333333333</v>
       </c>
@@ -1483,23 +1488,23 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>0</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <f>G12</f>
         <v>1</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <f>AVERAGE(C12:E12)</f>
         <v>1</v>
       </c>
@@ -1509,107 +1514,123 @@
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>0</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>0.36</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>0.4</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <f>G13</f>
         <v>0.25333333333333335</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <f>AVERAGE(C13:E13)</f>
         <v>0.25333333333333335</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="19"/>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <f>AVERAGE(C14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1638,7 +1659,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="F13:F14">
     <cfRule type="iconSet" priority="1">
       <iconSet showValue="0" reverse="1">
         <cfvo type="percent" val="0"/>
@@ -1662,164 +1683,164 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,164 +1856,164 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
